--- a/report/agents.xlsx
+++ b/report/agents.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Angie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Angie/Documents/MIEIC/4A1S/AIAD/practice/project/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="12780" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-3760" yWindow="460" windowWidth="25600" windowHeight="14840" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="spotters" sheetId="1" r:id="rId1"/>
     <sheet name="producers" sheetId="2" r:id="rId2"/>
     <sheet name="transporters" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -598,7 +598,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
